--- a/biology/Zoologie/Cophixalus_parkeri/Cophixalus_parkeri.xlsx
+++ b/biology/Zoologie/Cophixalus_parkeri/Cophixalus_parkeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cophixalus parkeri est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cophixalus parkeri est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des provinces de Morobe et Simbu en Papouasie-Nouvelle-Guinée. Son aire de répartition concerne les régions montagneuses. Elle est présente entre 2 000 et 2 600 m[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des provinces de Morobe et Simbu en Papouasie-Nouvelle-Guinée. Son aire de répartition concerne les régions montagneuses. Elle est présente entre 2 000 et 2 600 m.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le spécimen, une femelle, décrit par Loveridge mesurait 28 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le spécimen, une femelle, décrit par Loveridge mesurait 28 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Hampton Wildman Parker[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Hampton Wildman Parker.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Loveridge, 1948 : New Guinean Reptiles and Amphibians in the Museum of Comparative Zoölogy and United States National Museum. Bulletin of the Museum of Comparative Zoology at Harvard College, vol. 101, no 2, p. 305-430 (texte intégral).</t>
         </is>
